--- a/finfolio2/Depense2.xlsx
+++ b/finfolio2/Depense2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -29,19 +29,28 @@
     <t>Tax</t>
   </si>
   <si>
-    <t>User</t>
+    <t>nourriture</t>
   </si>
   <si>
-    <t>imnida sisia</t>
+    <t>2024-03-23</t>
   </si>
   <si>
-    <t>2024-03-08</t>
+    <t>vetement</t>
   </si>
   <si>
-    <t>mimi</t>
+    <t>2024-04-04</t>
   </si>
   <si>
-    <t>2024-05-10</t>
+    <t>accessoire</t>
+  </si>
+  <si>
+    <t>2024-03-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bvng</t>
+  </si>
+  <si>
+    <t>2024-03-29</t>
   </si>
 </sst>
 </file>
@@ -86,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -108,47 +117,72 @@
       <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>221.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
       <c r="D2" t="n" s="0">
-        <v>558844.0</v>
+        <v>150.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>78238.203125</v>
-      </c>
-      <c r="F2" t="n" s="0">
         <v>106.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>222.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>106.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D3" t="n" s="0">
-        <v>777777.0</v>
+      <c r="C4" t="s" s="0">
+        <v>10</v>
       </c>
-      <c r="E3" t="n" s="0">
-        <v>108889.0</v>
+      <c r="D4" t="n" s="0">
+        <v>15.0</v>
       </c>
-      <c r="F3" t="n" s="0">
+      <c r="E4" t="n" s="0">
+        <v>106.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>555.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
         <v>106.0</v>
       </c>
     </row>
